--- a/431 та умумий.xlsx
+++ b/431 та умумий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inves\OneDrive\Ishchi stol\ren.new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D98AC-23D1-4ADF-9091-67CE22F5CE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFDFAF-EDFB-487A-B4BA-2DAEF2EA88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5771,8 +5771,8 @@
   </sheetPr>
   <dimension ref="A1:W432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
